--- a/data/trans_orig/P36B03_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B03_2023-Habitat-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
+          <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -788,7 +788,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,26%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>82,85%</t>
+          <t>84,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>84,55%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,23%</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,29%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>83,63%</t>
+          <t>83,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>85,51%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>83,06%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>86,78%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>12,23%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>83,29%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>80,53%</t>
+          <t>80,8%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>84,83%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>82,67%</t>
+          <t>82,61%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>86,31%</t>
+          <t>86,12%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>17,03%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>71,33%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>73,81%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>81,42%</t>
+          <t>81,26%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,43%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,47%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>81,14%</t>
+          <t>80,97%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>77,16%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>83,63%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>84,14%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,88%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>81,75%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>84,6%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>79,88%</t>
+          <t>80,07%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>83,64%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>83,44%</t>
         </is>
       </c>
     </row>
